--- a/Assets/Presentation-Version/course_spreadsheet.xlsx
+++ b/Assets/Presentation-Version/course_spreadsheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MATHSTATS" sheetId="1" state="visible" r:id="rId2"/>
@@ -399,10 +399,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -540,11 +540,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -814,16 +814,16 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E44" activeCellId="0" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -971,11 +971,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1098,11 +1098,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.015306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1221,15 +1221,15 @@
   </sheetPr>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
